--- a/jpcore-r4/main/ValueSet-jp-documentcodes-endoscopy-vs.xlsx
+++ b/jpcore-r4/main/ValueSet-jp-documentcodes-endoscopy-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/ValueSet-jp-documentcodes-endoscopy-vs.xlsx
+++ b/jpcore-r4/main/ValueSet-jp-documentcodes-endoscopy-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/ValueSet-jp-documentcodes-endoscopy-vs.xlsx
+++ b/jpcore-r4/main/ValueSet-jp-documentcodes-endoscopy-vs.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
